--- a/docs/HwInterfaces_BreadBoard_pin.xlsx
+++ b/docs/HwInterfaces_BreadBoard_pin.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="HwPins" sheetId="1" r:id="rId1"/>
+    <sheet name="MotorDriverTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -373,13 +374,61 @@
   </si>
   <si>
     <t>Used for setting the direction for rotating the leftt motor</t>
+  </si>
+  <si>
+    <t>Motor A truth table</t>
+  </si>
+  <si>
+    <t>ENA</t>
+  </si>
+  <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>IN2</t>
+  </si>
+  <si>
+    <t>Motor A is off</t>
+  </si>
+  <si>
+    <t>Motor A is stopped (brakes)</t>
+  </si>
+  <si>
+    <t>Motor A is on and turning backwards</t>
+  </si>
+  <si>
+    <t>Motor A is on and turning forwards</t>
+  </si>
+  <si>
+    <t>Motor B truth table</t>
+  </si>
+  <si>
+    <t>ENB</t>
+  </si>
+  <si>
+    <t>IN3</t>
+  </si>
+  <si>
+    <t>IN4</t>
+  </si>
+  <si>
+    <t>Motor B is off</t>
+  </si>
+  <si>
+    <t>Motor B is stopped (brakes)</t>
+  </si>
+  <si>
+    <t>Motor B is on and turning backwards</t>
+  </si>
+  <si>
+    <t>Motor B is on and turning forwards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -392,16 +441,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -424,11 +492,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -436,6 +513,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -739,14 +826,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="1" customWidth="1"/>
     <col min="3" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.140625" style="1" customWidth="1"/>
@@ -758,7 +845,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -808,7 +895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -858,7 +945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -908,7 +995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -952,7 +1039,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -996,7 +1083,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1040,7 +1127,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1090,7 +1177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -1134,7 +1221,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1178,7 +1265,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -1228,7 +1315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -1278,7 +1365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -1322,7 +1409,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1372,7 +1459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -1422,7 +1509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -1466,7 +1553,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
@@ -1510,7 +1597,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
@@ -1551,7 +1638,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -1592,7 +1679,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -1633,7 +1720,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
@@ -1674,7 +1761,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -1715,7 +1802,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -1756,7 +1843,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -1806,7 +1893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
@@ -1894,6 +1981,213 @@
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/HwInterfaces_BreadBoard_pin.xlsx
+++ b/docs/HwInterfaces_BreadBoard_pin.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="HwPins" sheetId="1" r:id="rId1"/>
     <sheet name="MotorDriverTable" sheetId="2" r:id="rId2"/>
+    <sheet name="Timer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -226,9 +227,6 @@
     <t>RGB LED blue</t>
   </si>
   <si>
-    <t>signals the LED to flash in Blue; used to be turned on when the horn is pressed ( Joystic button )</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
@@ -280,6 +278,9 @@
     <t>Distance Sensor Echo</t>
   </si>
   <si>
+    <t>receive feedback about the distance of an object detected</t>
+  </si>
+  <si>
     <t>g</t>
   </si>
   <si>
@@ -292,6 +293,69 @@
     <t>PD3</t>
   </si>
   <si>
+    <t>Driver Right Motor En</t>
+  </si>
+  <si>
+    <t>Used for setting the speed  from the possible range 0~255</t>
+  </si>
+  <si>
+    <t>IOH4 - PB3</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>Driver Right Motor In1</t>
+  </si>
+  <si>
+    <t>Used for setting the direction for rotating the right motor</t>
+  </si>
+  <si>
+    <t>IOL7 - IOL6</t>
+  </si>
+  <si>
+    <t>PD6</t>
+  </si>
+  <si>
+    <t>Driver Right Motor In2</t>
+  </si>
+  <si>
+    <t>IOL8 - IOL7</t>
+  </si>
+  <si>
+    <t>PD7</t>
+  </si>
+  <si>
+    <t>Driver Left Motor En</t>
+  </si>
+  <si>
+    <t>IOH3 - PB2</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>Driver Left Motor In3</t>
+  </si>
+  <si>
+    <t>Used for setting the direction for rotating the leftt motor</t>
+  </si>
+  <si>
+    <t>IOH1 - IO8</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>Driver Left Motor In4</t>
+  </si>
+  <si>
+    <t>IOH2 - IO9</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
     <t>Ground from U3</t>
   </si>
   <si>
@@ -310,72 +374,6 @@
     <t>connecting the breadboard to the controller's high; connect also 30 - to 30 - right and left hand side of the BB</t>
   </si>
   <si>
-    <t>Driver Left Motor En</t>
-  </si>
-  <si>
-    <t>Driver Right Motor En</t>
-  </si>
-  <si>
-    <t>Driver Right Motor In1</t>
-  </si>
-  <si>
-    <t>Driver Right Motor In2</t>
-  </si>
-  <si>
-    <t>Driver Left Motor In3</t>
-  </si>
-  <si>
-    <t>Driver Left Motor In4</t>
-  </si>
-  <si>
-    <t>receive feedback about the distance of an object detected</t>
-  </si>
-  <si>
-    <t>IOH4 - PB3</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>IOH3 - PB2</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>IOL7 - IOL6</t>
-  </si>
-  <si>
-    <t>IOL8 - IOL7</t>
-  </si>
-  <si>
-    <t>PD6</t>
-  </si>
-  <si>
-    <t>PD7</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
-    <t>PB0</t>
-  </si>
-  <si>
-    <t>IOH1 - IO8</t>
-  </si>
-  <si>
-    <t>IOH2 - IO9</t>
-  </si>
-  <si>
-    <t>Used for setting the speed  from the possible range 0~255</t>
-  </si>
-  <si>
-    <t>Used for setting the direction for rotating the right motor</t>
-  </si>
-  <si>
-    <t>Used for setting the direction for rotating the leftt motor</t>
-  </si>
-  <si>
     <t>Motor A truth table</t>
   </si>
   <si>
@@ -422,6 +420,21 @@
   </si>
   <si>
     <t>Motor B is on and turning forwards</t>
+  </si>
+  <si>
+    <t>OCR1A</t>
+  </si>
+  <si>
+    <t>prescaler</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>1 ms</t>
+  </si>
+  <si>
+    <t>signals the LED to flash in Blue; used to be turned on when the horn is beeping ( Joystic button )</t>
   </si>
 </sst>
 </file>
@@ -465,7 +478,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -505,12 +518,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,7 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -827,1157 +839,1157 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>9</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>7</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>4</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="1">
+      <c r="F10" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="2">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="2">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2">
+        <v>19</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="2">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="2">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="2">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="2">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="2">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="2">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="E22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="2">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="2">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="J22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1">
+      <c r="L23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="D24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="1">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="1">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="K24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="1">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="1">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="1">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="1">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="1">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="1">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="1">
-        <v>19</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="1">
-        <v>11</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="1">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="1">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="1">
-        <v>6</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="1">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="1">
-        <v>21</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="1">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="1">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="1">
-        <v>24</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="1">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="1">
-        <v>25</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="1">
-        <v>8</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="1">
-        <v>26</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="1">
-        <v>26</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="1">
-        <v>9</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="1" t="s">
+      <c r="M24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -1995,32 +2007,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -2031,10 +2045,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2045,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2059,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2073,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2087,32 +2101,32 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>0</v>
       </c>
@@ -2123,10 +2137,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2137,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2151,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2165,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2179,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2187,7 +2201,46 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D9"/>
   </mergeCells>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1">
+        <v>142200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/HwInterfaces_BreadBoard_pin.xlsx
+++ b/docs/HwInterfaces_BreadBoard_pin.xlsx
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1588,7 +1588,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>37</v>
@@ -1600,10 +1600,10 @@
         <v>34</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1755,7 +1755,7 @@
         <v>35</v>
       </c>
       <c r="H20" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>21</v>
@@ -1764,13 +1764,13 @@
         <v>88</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/HwInterfaces_BreadBoard_pin.xlsx
+++ b/docs/HwInterfaces_BreadBoard_pin.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Arduino\arduino-master\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="396" yWindow="636" windowWidth="19812" windowHeight="7368"/>
   </bookViews>
   <sheets>
     <sheet name="HwPins" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -248,24 +253,15 @@
     <t>PD2</t>
   </si>
   <si>
-    <t>Distance Sensor Ground</t>
-  </si>
-  <si>
     <t>connecting the HCSR044's ground to the controller's ground</t>
   </si>
   <si>
     <t>White</t>
   </si>
   <si>
-    <t>Distance Sensor Bat</t>
-  </si>
-  <si>
     <t>connecting the HCSR044's high to the controller's 5V</t>
   </si>
   <si>
-    <t>Distance Sensor Trigger</t>
-  </si>
-  <si>
     <t>send signal from the board to the sensor to perform measurement</t>
   </si>
   <si>
@@ -275,9 +271,6 @@
     <t>PB5</t>
   </si>
   <si>
-    <t>Distance Sensor Echo</t>
-  </si>
-  <si>
     <t>receive feedback about the distance of an object detected</t>
   </si>
   <si>
@@ -435,12 +428,66 @@
   </si>
   <si>
     <t>signals the LED to flash in Blue; used to be turned on when the horn is beeping ( Joystic button )</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>connecting the LCD display's ground to controller's ground</t>
+  </si>
+  <si>
+    <t>connecting the LCD display's Bat to controller's bat</t>
+  </si>
+  <si>
+    <t>LCD Display LCD1602 - hd44780 controller - Ground</t>
+  </si>
+  <si>
+    <t>LCD Display LCD1602 - hd44780 controller - Vcc</t>
+  </si>
+  <si>
+    <t>LCD Display LCD1602 - hd44780 controller - SDA</t>
+  </si>
+  <si>
+    <t>LCD Display LCD1602 - hd44780 controller - SCL</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>AD6 - AD5/SCI</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>AD5 - AD4/SDA</t>
+  </si>
+  <si>
+    <t>Distance Sensor HCSR04 -Ground</t>
+  </si>
+  <si>
+    <t>Distance Sensor  HCSR04 -Vcc</t>
+  </si>
+  <si>
+    <t>Distance Sensor  HCSR04 -Trigger</t>
+  </si>
+  <si>
+    <t>Distance Sensor  HCSR04 -Echo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -535,9 +582,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Нормален" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -545,14 +595,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office тема">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Оffice">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -590,9 +643,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Оffice">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,7 +680,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,7 +715,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Оffice">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -836,28 +889,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" style="2" customWidth="1"/>
     <col min="3" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="8.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -957,7 +1010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1007,7 +1060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1051,7 +1104,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1095,7 +1148,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1139,7 +1192,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
@@ -1189,7 +1242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>58</v>
       </c>
@@ -1221,7 +1274,7 @@
         <v>52</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>62</v>
@@ -1233,7 +1286,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
@@ -1277,12 +1330,12 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2">
         <v>8</v>
@@ -1327,7 +1380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
@@ -1359,7 +1412,7 @@
         <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>23</v>
@@ -1377,7 +1430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1421,12 +1474,12 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C13" s="2">
         <v>13</v>
@@ -1435,7 +1488,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2">
         <v>30</v>
@@ -1471,12 +1524,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
@@ -1521,12 +1574,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
@@ -1556,27 +1609,27 @@
         <v>69</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
@@ -1594,27 +1647,27 @@
         <v>37</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2">
         <v>19</v>
@@ -1638,30 +1691,30 @@
         <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>69</v>
@@ -1685,18 +1738,18 @@
         <v>50</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2">
         <v>21</v>
@@ -1726,18 +1779,18 @@
         <v>43</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2">
         <v>24</v>
@@ -1761,30 +1814,30 @@
         <v>21</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C21" s="2">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>61</v>
@@ -1808,18 +1861,18 @@
         <v>50</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2">
         <v>26</v>
@@ -1849,147 +1902,251 @@
         <v>43</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="2">
+        <v>27</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="2">
+        <v>26</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="2">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="2">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="2">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="2">
+        <v>29</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -2005,36 +2162,36 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -2045,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2059,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2073,10 +2230,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2087,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2101,32 +2258,32 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>0</v>
       </c>
@@ -2137,10 +2294,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2151,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2165,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2179,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2193,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2214,30 +2371,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1">
         <v>142200</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/docs/HwInterfaces_BreadBoard_pin.xlsx
+++ b/docs/HwInterfaces_BreadBoard_pin.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="155">
   <si>
     <t>Name</t>
   </si>
@@ -271,9 +271,6 @@
     <t>PB5</t>
   </si>
   <si>
-    <t>receive feedback about the distance of an object detected</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
@@ -482,6 +479,15 @@
   </si>
   <si>
     <t>Distance Sensor  HCSR04 -Echo</t>
+  </si>
+  <si>
+    <t>receive feedback about the distance of an object detected 2 to 400 sm</t>
+  </si>
+  <si>
+    <t>Used for receiving the data using i2c 16 cols, 2 lines</t>
+  </si>
+  <si>
+    <t>Used for the i2c protocol - the clock related to the data</t>
   </si>
 </sst>
 </file>
@@ -579,11 +585,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1274,7 +1280,7 @@
         <v>52</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>62</v>
@@ -1335,7 +1341,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2">
         <v>8</v>
@@ -1476,7 +1482,7 @@
     </row>
     <row r="13" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>76</v>
@@ -1526,7 +1532,7 @@
     </row>
     <row r="14" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>78</v>
@@ -1576,7 +1582,7 @@
     </row>
     <row r="15" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>79</v>
@@ -1620,16 +1626,16 @@
     </row>
     <row r="16" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C16" s="2">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
@@ -1647,16 +1653,16 @@
         <v>37</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1664,10 +1670,10 @@
     </row>
     <row r="17" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C17" s="2">
         <v>19</v>
@@ -1691,30 +1697,30 @@
         <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>69</v>
@@ -1738,18 +1744,18 @@
         <v>50</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2">
         <v>21</v>
@@ -1779,18 +1785,18 @@
         <v>43</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2">
         <v>24</v>
@@ -1814,30 +1820,30 @@
         <v>21</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C21" s="2">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>61</v>
@@ -1861,18 +1867,18 @@
         <v>50</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="2">
         <v>26</v>
@@ -1902,43 +1908,118 @@
         <v>43</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2">
         <v>27</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2">
         <v>26</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>27</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C25" s="2">
         <v>28</v>
@@ -1947,7 +2028,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" s="2">
         <v>28</v>
@@ -1956,7 +2037,7 @@
         <v>44</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>21</v>
@@ -1968,24 +2049,27 @@
         <v>34</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C26" s="2">
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="2">
         <v>29</v>
@@ -1994,7 +2078,7 @@
         <v>44</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>21</v>
@@ -2006,18 +2090,18 @@
         <v>69</v>
       </c>
       <c r="L26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -2026,10 +2110,10 @@
         <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>18</v>
@@ -2064,10 +2148,10 @@
     </row>
     <row r="28" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -2079,7 +2163,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>27</v>
@@ -2170,22 +2254,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -2202,7 +2286,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2216,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2230,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2244,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2258,26 +2342,26 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
@@ -2294,7 +2378,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2308,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2322,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2336,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2350,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2375,7 +2459,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1">
         <v>142200</v>
@@ -2383,7 +2467,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>1024</v>
@@ -2391,10 +2475,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/docs/HwInterfaces_BreadBoard_pin.xlsx
+++ b/docs/HwInterfaces_BreadBoard_pin.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="636" windowWidth="19812" windowHeight="7368"/>
+    <workbookView xWindow="396" yWindow="636" windowWidth="19812" windowHeight="7368" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HwPins" sheetId="1" r:id="rId1"/>
     <sheet name="MotorDriverTable" sheetId="2" r:id="rId2"/>
     <sheet name="Timer" sheetId="3" r:id="rId3"/>
+    <sheet name="UltrasonicSensor" sheetId="4" r:id="rId4"/>
+    <sheet name="ADAS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -262,9 +264,6 @@
     <t>connecting the HCSR044's high to the controller's 5V</t>
   </si>
   <si>
-    <t>send signal from the board to the sensor to perform measurement</t>
-  </si>
-  <si>
     <t>IOH6 - PB5</t>
   </si>
   <si>
@@ -421,9 +420,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>1 ms</t>
-  </si>
-  <si>
     <t>signals the LED to flash in Blue; used to be turned on when the horn is beeping ( Joystic button )</t>
   </si>
   <si>
@@ -488,6 +484,78 @@
   </si>
   <si>
     <t>Used for the i2c protocol - the clock related to the data</t>
+  </si>
+  <si>
+    <t>send signal from the board to the sensor to perform measurement at 40,000hz</t>
+  </si>
+  <si>
+    <t>2 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // The approximate speed of sound in dry air is given by the formula:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // c = 331.5 (m/s) + 0.6 * [air temperature in degrees Celsius]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // Give the temperatue of 21 Celcius;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // 331.5 + (0.6 * 21) = 344.1 meter/sec = 34410 cm/sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // 34410 cm/sec = (34410 / 1000) cm/msec = 0.034410 cm/microsec</t>
+  </si>
+  <si>
+    <t>#define ULTRASONICSENSOR_SPEED_SOUND_CM_PER_USEC 23</t>
+  </si>
+  <si>
+    <t>Minimum value detected - 2 sm</t>
+  </si>
+  <si>
+    <t>Maximum value detected - 400 sm</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>5 sm</t>
+  </si>
+  <si>
+    <t>10 sm</t>
+  </si>
+  <si>
+    <t>20 sm</t>
+  </si>
+  <si>
+    <t>30 sm</t>
+  </si>
+  <si>
+    <t>40 sm</t>
+  </si>
+  <si>
+    <t>Gear 3 forward and object on less than 5 sm</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>Gear 1 forward and object on less than 10 sm</t>
+  </si>
+  <si>
+    <t>Gear 1 forward and object on less than 7 sm</t>
+  </si>
+  <si>
+    <t>Gear 3 forward and object on less than 10 sm</t>
+  </si>
+  <si>
+    <t>use cases</t>
   </si>
 </sst>
 </file>
@@ -897,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1280,7 +1348,7 @@
         <v>52</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>62</v>
@@ -1341,7 +1409,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2">
         <v>8</v>
@@ -1471,10 +1539,10 @@
         <v>34</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1482,7 +1550,7 @@
     </row>
     <row r="13" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>76</v>
@@ -1532,7 +1600,7 @@
     </row>
     <row r="14" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>78</v>
@@ -1582,10 +1650,10 @@
     </row>
     <row r="15" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
@@ -1615,10 +1683,10 @@
         <v>69</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1626,16 +1694,16 @@
     </row>
     <row r="16" spans="1:16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
@@ -1653,16 +1721,16 @@
         <v>37</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1670,10 +1738,10 @@
     </row>
     <row r="17" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C17" s="2">
         <v>19</v>
@@ -1697,30 +1765,30 @@
         <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>69</v>
@@ -1744,18 +1812,18 @@
         <v>50</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2">
         <v>21</v>
@@ -1785,18 +1853,18 @@
         <v>43</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2">
         <v>24</v>
@@ -1820,30 +1888,30 @@
         <v>21</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C21" s="2">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>61</v>
@@ -1867,18 +1935,18 @@
         <v>50</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2">
         <v>26</v>
@@ -1908,18 +1976,18 @@
         <v>43</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2">
         <v>27</v>
@@ -1966,10 +2034,10 @@
     </row>
     <row r="24" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="2">
         <v>26</v>
@@ -2016,10 +2084,10 @@
     </row>
     <row r="25" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2">
         <v>28</v>
@@ -2028,7 +2096,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F25" s="2">
         <v>28</v>
@@ -2037,7 +2105,7 @@
         <v>44</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>21</v>
@@ -2049,27 +2117,27 @@
         <v>34</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2">
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F26" s="2">
         <v>29</v>
@@ -2078,7 +2146,7 @@
         <v>44</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>21</v>
@@ -2090,18 +2158,18 @@
         <v>69</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -2110,10 +2178,10 @@
         <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>18</v>
@@ -2148,10 +2216,10 @@
     </row>
     <row r="28" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -2163,7 +2231,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>27</v>
@@ -2255,7 +2323,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2263,13 +2331,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -2286,7 +2354,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2300,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2314,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2328,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2342,12 +2410,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2355,13 +2423,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
@@ -2378,7 +2446,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2392,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2406,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2420,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
@@ -2434,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2452,33 +2520,185 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1">
-        <v>142200</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2">
-        <v>1024</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16">
+        <v>706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/docs/HwInterfaces_BreadBoard_pin.xlsx
+++ b/docs/HwInterfaces_BreadBoard_pin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="636" windowWidth="19812" windowHeight="7368" activeTab="3"/>
+    <workbookView xWindow="396" yWindow="636" windowWidth="19812" windowHeight="7368" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HwPins" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="Timer" sheetId="3" r:id="rId3"/>
     <sheet name="UltrasonicSensor" sheetId="4" r:id="rId4"/>
     <sheet name="ADAS" sheetId="5" r:id="rId5"/>
+    <sheet name="TWI" sheetId="6" r:id="rId6"/>
+    <sheet name="LCD" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="226">
   <si>
     <t>Name</t>
   </si>
@@ -556,13 +558,160 @@
   </si>
   <si>
     <t>use cases</t>
+  </si>
+  <si>
+    <t>SCL/ADC5/PCINT13 – Port C, Bit 5</t>
+  </si>
+  <si>
+    <t>SCL, 2-wire Serial Interface Clock: When the TWEN bit in TWCR is set (one) to enable the 2-</t>
+  </si>
+  <si>
+    <t>wire Serial Interface, pin PC5 is disconnected from the port and becomes the Serial Clock I/O</t>
+  </si>
+  <si>
+    <t>pin for the 2-wire Serial Interface. In this mode, there is a spike filter on the pin to suppress</t>
+  </si>
+  <si>
+    <t>spikes shorter than 50 ns on the input signal, and the pin is driven by an open drain driver with</t>
+  </si>
+  <si>
+    <t>slew-rate limitation.</t>
+  </si>
+  <si>
+    <t>PC5 can also be used as ADC input Channel 5. Note that ADC input channel 5 uses digital</t>
+  </si>
+  <si>
+    <t>power.</t>
+  </si>
+  <si>
+    <t>PCINT13: Pin Change Interrupt source 13. The PC5 pin can serve as an external interrupt</t>
+  </si>
+  <si>
+    <t>source.</t>
+  </si>
+  <si>
+    <t>• SDA/ADC4/PCINT12 – Port C, Bit 4</t>
+  </si>
+  <si>
+    <t>SDA, 2-wire Serial Interface Data: When the TWEN bit in TWCR is set (one) to enable the 2-wire</t>
+  </si>
+  <si>
+    <t>Serial Interface, pin PC4 is disconnected from the port and becomes the Serial Data I/O pin for</t>
+  </si>
+  <si>
+    <t>the 2-wire Serial Interface. In this mode, there is a spike filter on the pin to suppress spikes</t>
+  </si>
+  <si>
+    <t>shorter than 50 ns on the input signal, and the pin is driven by an open drain driver with slewrate</t>
+  </si>
+  <si>
+    <t>limitation.</t>
+  </si>
+  <si>
+    <t>PC4 can also be used as ADC input Channel 4. Note that ADC input channel 4 uses digital</t>
+  </si>
+  <si>
+    <t>PCINT12: Pin Change Interrupt source 12. The PC4 pin can serve as an external interrupt</t>
+  </si>
+  <si>
+    <t>Standard is 100kHz,</t>
+  </si>
+  <si>
+    <t>BitRate</t>
+  </si>
+  <si>
+    <t>16 Characters * 2 Lines</t>
+  </si>
+  <si>
+    <t>HD44780U</t>
+  </si>
+  <si>
+    <t>JHD659</t>
+  </si>
+  <si>
+    <t>Static text set at:</t>
+  </si>
+  <si>
+    <t>[0,0] = "State"</t>
+  </si>
+  <si>
+    <t>[6,0] = "LW G"</t>
+  </si>
+  <si>
+    <t>[13,0] = "D"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction </t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Current state</t>
+  </si>
+  <si>
+    <t>Left Wheel Gear</t>
+  </si>
+  <si>
+    <t>N/1/2/3</t>
+  </si>
+  <si>
+    <t>N/B/F</t>
+  </si>
+  <si>
+    <t>N/D/W/A/E</t>
+  </si>
+  <si>
+    <t>[6,1] = "RW G"</t>
+  </si>
+  <si>
+    <t>[13,1] = "D"</t>
+  </si>
+  <si>
+    <t>No risk / Self Diagnosis / Warning telltale / Attention / Error Crytical</t>
+  </si>
+  <si>
+    <t>Value description</t>
+  </si>
+  <si>
+    <t>No gear / Gear 1 / Gear 2 / Gear 3</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pwm value </t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>DC_MOTORS_MIN_SPEED</t>
+  </si>
+  <si>
+    <t>Gear name</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>DC_MOTORS_MAX_SPEED</t>
+  </si>
+  <si>
+    <t>DC_MOTORS_GEAR1_SPEED</t>
+  </si>
+  <si>
+    <t>DC_MOTORS_GEAR2_SPEED</t>
+  </si>
+  <si>
+    <t>DC_MOTORS_GEAR3_SPEED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -588,6 +737,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -603,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -635,11 +798,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -659,6 +837,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -966,7 +1148,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="M26" sqref="F25:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2308,16 +2490,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2503,6 +2687,72 @@
       </c>
       <c r="D15" s="4" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="10">
+        <v>64</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="10">
+        <v>255</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>92</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>144</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="10">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>192</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2558,7 +2808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2704,4 +2954,243 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="64.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>